--- a/Devices.xlsx
+++ b/Devices.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\E-Learning\Huawei Egypt\Network_Automation_hub-spoke-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CCC2A8-2BBA-47EB-B60D-1939D3EA2441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27DBEC0-943E-4923-A6EC-ABEC3261099B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$18</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="42">
   <si>
     <t>Separator</t>
   </si>
@@ -42,34 +45,115 @@
     <t>***</t>
   </si>
   <si>
+    <t>test123</t>
+  </si>
+  <si>
+    <t>huawei</t>
+  </si>
+  <si>
+    <t>192.168.200.2</t>
+  </si>
+  <si>
+    <t>192.168.200.3</t>
+  </si>
+  <si>
+    <t>192.168.200.4</t>
+  </si>
+  <si>
+    <t>192.168.200.5</t>
+  </si>
+  <si>
+    <t>192.168.200.6</t>
+  </si>
+  <si>
+    <t>192.168.200.7</t>
+  </si>
+  <si>
+    <t>Node Name (optional)</t>
+  </si>
+  <si>
     <t>192.168.200.1</t>
   </si>
   <si>
-    <t>test123</t>
-  </si>
-  <si>
-    <t>huawei</t>
-  </si>
-  <si>
-    <t>192.168.200.2</t>
-  </si>
-  <si>
-    <t>192.168.200.3</t>
-  </si>
-  <si>
-    <t>192.168.200.4</t>
-  </si>
-  <si>
-    <t>192.168.200.5</t>
-  </si>
-  <si>
-    <t>192.168.200.6</t>
-  </si>
-  <si>
-    <t>192.168.200.7</t>
-  </si>
-  <si>
-    <t>Node Name (optional)</t>
+    <t>192.168.200.8</t>
+  </si>
+  <si>
+    <t>192.168.200.9</t>
+  </si>
+  <si>
+    <t>192.168.200.10</t>
+  </si>
+  <si>
+    <t>192.168.200.11</t>
+  </si>
+  <si>
+    <t>192.168.200.12</t>
+  </si>
+  <si>
+    <t>192.168.200.13</t>
+  </si>
+  <si>
+    <t>192.168.200.14</t>
+  </si>
+  <si>
+    <t>192.168.200.15</t>
+  </si>
+  <si>
+    <t>192.168.200.16</t>
+  </si>
+  <si>
+    <t>192.168.200.17</t>
+  </si>
+  <si>
+    <t>Spoke_CE1</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>Spoke_CE2</t>
+  </si>
+  <si>
+    <t>Hub_CE7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>Spoke-CE22</t>
+  </si>
+  <si>
+    <t>Spoke-PE11</t>
+  </si>
+  <si>
+    <t>Spoke-PE33</t>
+  </si>
+  <si>
+    <t>Spoke-PE3</t>
+  </si>
+  <si>
+    <t>Spoke-PE4</t>
+  </si>
+  <si>
+    <t>Hub-PE6</t>
+  </si>
+  <si>
+    <t>PE66</t>
+  </si>
+  <si>
+    <t>Hub-PE26</t>
   </si>
 </sst>
 </file>
@@ -393,26 +477,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -434,146 +516,402 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>6</v>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G18" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
+      <sortCondition ref="A1:A18"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
